--- a/data/processed/bmw_50_filas.xlsx
+++ b/data/processed/bmw_50_filas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,140 +486,135 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>km_por_año</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>color_estandar</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_4</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_5</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_6</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>modelo_serie_7</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>modelo_X</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>modelo_M</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>modelo_Z</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>modelo_i</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>modelo_Gran_Coupe</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>modelo_Coupe</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>modelo_Active_Tourer</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>modelo_Gran_Tourer</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>modelo_Gran_Turismo</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>modelo_ActiveHybrid</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>edad_coche_ordinal</t>
+        </is>
+      </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>años_coche_ordinal</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_convertible</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_coupe</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_estate</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_hatchback</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_sedan</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_subcompact</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_suv</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_van</t>
         </is>
@@ -630,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2890388917232448</v>
+        <v>0.02732538555802847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.7222222222222221</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -645,36 +640,36 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>11300</v>
+        <v>69700</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1882531143443235</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
@@ -687,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -714,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -738,9 +733,6 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,50 +741,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02778747425842578</v>
+        <v>0.3773250755823926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7030812324929971</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69700</v>
+        <v>10200</v>
       </c>
       <c r="K3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="b">
-        <v>1</v>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -807,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -846,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -855,9 +849,6 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,16 +857,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3776208898684056</v>
+        <v>0.2631259183028214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -884,22 +875,22 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>10200</v>
+        <v>25100</v>
       </c>
       <c r="K4" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.246513428699515</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -910,7 +901,7 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="b">
+      <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
@@ -950,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -968,15 +959,12 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -985,10 +973,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2634759852025968</v>
+        <v>0.3133771018931246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.4532163742690058</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1006,15 +994,17 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>25100</v>
+        <v>17100</v>
       </c>
       <c r="K5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -1022,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="b">
-        <v>1</v>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1067,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>1</v>
@@ -1091,9 +1081,6 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1995728499459866</v>
+        <v>0.4226269815192526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2633053221288515</v>
+        <v>0.219298245614035</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1117,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1126,12 +1113,14 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>33400</v>
+        <v>12400</v>
       </c>
       <c r="K6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
@@ -1139,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="b">
-        <v>1</v>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1184,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1208,9 +1197,6 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1219,10 +1205,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3137032959542611</v>
+        <v>0.2373462779158892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4453781512605042</v>
+        <v>0.1023391812865497</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1234,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17100</v>
+        <v>6100</v>
       </c>
       <c r="K7" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1749078650900389</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1261,9 +1247,9 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
@@ -1303,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1327,9 +1313,6 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1338,16 +1321,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4229012742208333</v>
+        <v>0.2869031160817426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2212885154061625</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1356,31 +1339,33 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12400</v>
+        <v>17300</v>
       </c>
       <c r="K8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
@@ -1420,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1444,9 +1429,6 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1455,10 +1437,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2377085919539637</v>
+        <v>0.1578995224308703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1092436974789916</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1470,36 +1452,36 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>6100</v>
+        <v>19300</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1021640787382321</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="b">
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
@@ -1539,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1563,9 +1545,6 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1574,38 +1553,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2549061323297648</v>
+        <v>0.2713712702181609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.165266106442577</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>6200</v>
+        <v>21700</v>
       </c>
       <c r="K10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1614,9 +1595,9 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
@@ -1635,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1656,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>1</v>
@@ -1680,9 +1661,6 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1691,16 +1669,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2872418871439814</v>
+        <v>0.1577879312019409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1709,20 +1687,22 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>17300</v>
+        <v>36300</v>
       </c>
       <c r="K11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1733,7 +1713,7 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="b">
+      <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
@@ -1776,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -1797,9 +1777,6 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1808,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1582995792530658</v>
+        <v>0.3594167498434623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1823,21 +1800,23 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19300</v>
+        <v>10500</v>
       </c>
       <c r="K12" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -1848,9 +1827,9 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
@@ -1890,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -1914,9 +1893,6 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1925,10 +1901,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4699559424049705</v>
+        <v>0.4303267763153816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2212885154061625</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1949,12 +1925,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13300</v>
+        <v>8300</v>
       </c>
       <c r="K13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1965,9 +1943,9 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
@@ -2007,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2031,9 +2009,6 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2042,43 +2017,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2717174199971496</v>
+        <v>0.04228274324304777</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2665382891143986</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2086,8 +2061,8 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="b">
-        <v>1</v>
+      <c r="Q14" t="n">
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2129,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2150,9 +2125,6 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2161,40 +2133,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1581880410378012</v>
+        <v>0.04921379846210755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>36300</v>
+        <v>9200</v>
       </c>
       <c r="K15" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2068794066104251</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2205,11 +2177,11 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="b">
-        <v>1</v>
+      <c r="Q15" t="n">
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2245,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2269,9 +2241,6 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,16 +2249,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3597210718409383</v>
+        <v>0.2649961046395087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2304,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10500</v>
+        <v>7700</v>
       </c>
       <c r="K16" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1556624236413942</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2324,7 +2293,7 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="b">
+      <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
@@ -2340,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2364,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2388,9 +2357,6 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2399,43 +2365,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4305974110740924</v>
+        <v>0.2593607475785737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1792717086834734</v>
+        <v>0.4532163742690058</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>8300</v>
+        <v>16800</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.167815951420304</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2443,7 +2409,7 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="b">
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
@@ -2483,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2507,9 +2473,6 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2518,51 +2481,51 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04273772614889526</v>
+        <v>0.1853550977559831</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>21900</v>
+        <v>26300</v>
       </c>
       <c r="K18" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05501623398676828</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
@@ -2602,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -2626,9 +2589,6 @@
         <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2637,16 +2597,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04966548863033138</v>
+        <v>0.09559028660347298</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2658,20 +2618,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>9200</v>
+        <v>23300</v>
       </c>
       <c r="K19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2679,14 +2641,14 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="b">
+      <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2722,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -2743,9 +2705,6 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2754,51 +2713,51 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4234279824595829</v>
+        <v>0.4037659973259435</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2212885154061625</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11000</v>
+        <v>1800</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1835957488237718</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
@@ -2838,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -2862,9 +2821,6 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2873,38 +2829,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2653452830695317</v>
+        <v>0.2334571169372754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123249299719888</v>
+        <v>0.3508771929824562</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>7700</v>
+        <v>30100</v>
       </c>
       <c r="K21" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2913,9 +2871,9 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
@@ -2934,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2955,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -2979,9 +2937,6 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2990,22 +2945,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2597126031986682</v>
+        <v>0.1349055297586943</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4453781512605042</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -3014,27 +2969,27 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>16800</v>
+        <v>28700</v>
       </c>
       <c r="K22" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2032571218975424</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
@@ -3074,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -3098,9 +3053,6 @@
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3109,16 +3061,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05038222493953183</v>
+        <v>0.2543928713869756</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1608187134502924</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -3127,31 +3079,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31000</v>
+        <v>6500</v>
       </c>
       <c r="K23" t="n">
         <v>0.375</v>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="b">
+      <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
@@ -3167,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3191,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3215,9 +3169,6 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3226,10 +3177,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1857421112531732</v>
+        <v>0.3730990744127512</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -3244,34 +3195,34 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>26300</v>
+        <v>11100</v>
       </c>
       <c r="K24" t="n">
         <v>0.625</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1817194441048213</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="b">
-        <v>1</v>
+      <c r="Q24" t="n">
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3310,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -3334,9 +3285,6 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3345,13 +3293,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09601994468530732</v>
+        <v>0.4017449561797776</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2072829131652661</v>
+        <v>0.1023391812865497</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -3363,31 +3311,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23300</v>
+        <v>9900</v>
       </c>
       <c r="K25" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="b">
+      <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
@@ -3427,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3436,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -3451,9 +3401,6 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,10 +3409,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08920165489663093</v>
+        <v>0.1695670053667115</v>
       </c>
       <c r="C26" t="n">
-        <v>0.319327731092437</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -3477,21 +3424,23 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>20800</v>
+        <v>9500</v>
       </c>
       <c r="K26" t="n">
         <v>0.375</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
@@ -3504,7 +3453,7 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="b">
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
@@ -3520,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3544,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -3568,9 +3517,6 @@
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3579,37 +3525,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4040492503186069</v>
+        <v>0.1325166508579092</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05322128851540617</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1800</v>
+        <v>27500</v>
       </c>
       <c r="K27" t="n">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06699872951407899</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3623,7 +3569,7 @@
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="b">
+      <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
@@ -3663,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.8333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>1</v>
@@ -3687,9 +3633,6 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3698,38 +3641,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.233821278599741</v>
+        <v>0.2558538898842551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3473389355742297</v>
+        <v>0.1608187134502924</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30100</v>
+        <v>6300</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3740,8 +3685,8 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
-      <c r="Q28" t="b">
-        <v>1</v>
+      <c r="Q28" t="n">
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3756,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3780,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -3804,9 +3749,6 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3815,50 +3757,52 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1353165103410384</v>
+        <v>0.3855848930274081</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1023391812865497</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28700</v>
+        <v>2400</v>
       </c>
       <c r="K29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="b">
-        <v>1</v>
+      <c r="Q29" t="n">
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3897,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -3921,9 +3865,6 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3932,10 +3873,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2547470870968875</v>
+        <v>0.04907120966958664</v>
       </c>
       <c r="C30" t="n">
-        <v>0.165266106442577</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -3950,20 +3891,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="K30" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3974,11 +3917,11 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" t="b">
+      <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3993,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -4014,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -4038,9 +3981,6 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4049,10 +3989,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3733968963458841</v>
+        <v>0.03422337670925733</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -4073,25 +4013,27 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>11100</v>
+        <v>24200</v>
       </c>
       <c r="K31" t="n">
         <v>0.625</v>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
@@ -4134,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4155,9 +4097,6 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4166,10 +4105,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4020291693088142</v>
+        <v>0.39983963927102</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1092436974789916</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -4181,34 +4120,36 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9900</v>
+        <v>11800</v>
       </c>
       <c r="K32" t="n">
         <v>0.5</v>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
-      <c r="Q32" t="b">
+      <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
@@ -4248,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -4263,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -4272,9 +4213,6 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4283,40 +4221,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1699615193157337</v>
+        <v>0.07437348757720977</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123249299719888</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>9500</v>
+        <v>34300</v>
       </c>
       <c r="K33" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0493966725290848</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4325,9 +4263,9 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
@@ -4346,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -4367,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4391,9 +4329,6 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4402,16 +4337,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05075815003542371</v>
+        <v>0.5583715119991569</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.4853801169590643</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4420,20 +4355,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>31000</v>
+        <v>12100</v>
       </c>
       <c r="K34" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -4444,7 +4381,7 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="b">
+      <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
@@ -4457,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4484,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -4508,9 +4445,6 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,10 +4453,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1329287663253735</v>
+        <v>0.2929827715541559</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.3216374269005848</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -4537,34 +4471,34 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>27500</v>
+        <v>15800</v>
       </c>
       <c r="K35" t="n">
         <v>0.625</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1296164975343359</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
-      <c r="Q35" t="b">
-        <v>1</v>
+      <c r="Q35" t="n">
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4603,16 +4537,16 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -4627,9 +4561,6 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4638,16 +4569,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4963698441976375</v>
+        <v>0.4599273830410263</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -4659,22 +4590,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="K36" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2155782876653398</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4682,7 +4613,7 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" t="b">
+      <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
@@ -4722,13 +4653,13 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -4746,9 +4677,6 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4757,10 +4685,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2562074115078521</v>
+        <v>0.3267122537501886</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165266106442577</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -4772,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -4781,12 +4709,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="K37" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4729,7 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
-      <c r="Q37" t="b">
+      <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
@@ -4818,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4839,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
@@ -4863,9 +4793,6 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4874,49 +4801,51 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3858767833204927</v>
+        <v>0.02567631517496058</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1092436974789916</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2400</v>
+        <v>24300</v>
       </c>
       <c r="K38" t="n">
         <v>0.375</v>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
@@ -4959,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
@@ -4980,10 +4909,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4991,10 +4917,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04952296757749324</v>
+        <v>0.3851922572219157</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1023391812865497</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -5009,38 +4935,40 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6800</v>
+        <v>2600</v>
       </c>
       <c r="K39" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" t="b">
+      <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -5073,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
@@ -5097,9 +5025,6 @@
         <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5108,16 +5033,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346821883797835</v>
+        <v>0.04192937101810465</v>
       </c>
       <c r="C40" t="n">
-        <v>0.123249299719888</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -5129,30 +5054,30 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24200</v>
+        <v>21400</v>
       </c>
       <c r="K40" t="n">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="L40" t="n">
-        <v>0.06787708358805068</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
@@ -5192,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -5216,9 +5141,6 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5227,37 +5149,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.400124757559296</v>
+        <v>0.1023250239197866</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>11800</v>
+        <v>26200</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1557908464767494</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -5271,7 +5193,7 @@
       <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" t="b">
+      <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
@@ -5311,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
         <v>1</v>
@@ -5335,9 +5257,6 @@
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5346,36 +5265,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07481322512749437</v>
+        <v>0.3026891419667748</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34300</v>
+        <v>8400</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -5388,8 +5309,8 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" t="b">
-        <v>1</v>
+      <c r="Q42" t="n">
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5428,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
         <v>1</v>
@@ -5452,9 +5373,6 @@
         <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5463,13 +5381,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2933186543533985</v>
+        <v>0.1052098638380357</v>
       </c>
       <c r="C43" t="n">
-        <v>0.319327731092437</v>
+        <v>0.1023391812865497</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -5484,28 +5402,30 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15800</v>
+        <v>17100</v>
       </c>
       <c r="K43" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
@@ -5548,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
         <v>1</v>
@@ -5569,9 +5489,6 @@
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5580,49 +5497,51 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4601839554342865</v>
+        <v>0.2143522852437132</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
-      <c r="Q44" t="b">
+      <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
@@ -5662,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
         <v>1</v>
@@ -5686,9 +5605,6 @@
         <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5697,13 +5613,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3270321126783837</v>
+        <v>0.1583520868593062</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1792717086834734</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -5715,31 +5631,33 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9000</v>
+        <v>23800</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
@@ -5779,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
         <v>1</v>
@@ -5803,9 +5721,6 @@
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5814,49 +5729,51 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02613918729951522</v>
+        <v>0.1128786610705732</v>
       </c>
       <c r="C46" t="n">
-        <v>0.123249299719888</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24300</v>
+        <v>26500</v>
       </c>
       <c r="K46" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
@@ -5896,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" t="n">
         <v>0</v>
@@ -5921,9 +5838,6 @@
       </c>
       <c r="AL46" t="n">
         <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5931,22 +5845,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3854843340445616</v>
+        <v>0.02755683403284502</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1092436974789916</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -5955,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2600</v>
+        <v>27700</v>
       </c>
       <c r="K47" t="n">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08721618492121141</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5975,7 +5889,7 @@
       <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" t="b">
+      <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
@@ -6018,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
         <v>1</v>
@@ -6039,9 +5953,6 @@
         <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,43 +5961,43 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04238452180055728</v>
+        <v>0.1610468083875274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>21400</v>
+        <v>18300</v>
       </c>
       <c r="K48" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L48" t="n">
-        <v>0.04029017402290418</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -6094,8 +6005,8 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
-      <c r="Q48" t="b">
-        <v>1</v>
+      <c r="Q48" t="n">
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6134,16 +6045,16 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
         <v>0</v>
@@ -6158,9 +6069,6 @@
         <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6169,13 +6077,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1027514825287779</v>
+        <v>0.6787784480139861</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1932773109243697</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -6193,26 +6101,28 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>26200</v>
+        <v>2300</v>
       </c>
       <c r="K49" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+        <v>0.375</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
-      <c r="Q49" t="b">
-        <v>1</v>
+      <c r="Q49" t="n">
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -6251,10 +6161,10 @@
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
         <v>0</v>
@@ -6275,9 +6185,6 @@
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6286,19 +6193,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.303020413558916</v>
+        <v>0.547716616140638</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -6310,27 +6217,27 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="K50" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.197448750866039</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
-      <c r="Q50" t="b">
+      <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
@@ -6370,16 +6277,16 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -6394,9 +6301,6 @@
         <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6405,13 +6309,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1056349519456189</v>
+        <v>0.3739091440746091</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1092436974789916</v>
+        <v>0.1900584795321638</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -6426,28 +6330,30 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>17100</v>
+        <v>19000</v>
       </c>
       <c r="K51" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>0.625</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
@@ -6487,16 +6393,16 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -6511,9 +6417,6 @@
         <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/processed/bmw_50_filas.xlsx
+++ b/data/processed/bmw_50_filas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,70 +551,65 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>modelo_Coupe</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
           <t>modelo_Active_Tourer</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>modelo_Gran_Tourer</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>modelo_Gran_Turismo</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>modelo_ActiveHybrid</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>edad_coche_ordinal</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_convertible</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_coupe</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_estate</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_hatchback</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_sedan</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_subcompact</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_suv</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>tipo_coche_van</t>
         </is>
@@ -706,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -730,9 +725,6 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -837,18 +829,15 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -962,9 +951,6 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1054,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1078,9 +1064,6 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1170,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1194,9 +1177,6 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1286,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1310,9 +1290,6 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1402,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -1426,9 +1403,6 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1518,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1542,9 +1516,6 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1634,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1658,9 +1629,6 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1756,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1774,9 +1742,6 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1866,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1890,9 +1855,6 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1982,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -2006,9 +1968,6 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2122,9 +2081,6 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2238,9 +2194,6 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2330,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2354,9 +2307,6 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2446,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2470,9 +2420,6 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2562,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -2586,9 +2533,6 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2681,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2702,9 +2646,6 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2794,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2818,9 +2759,6 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2910,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -2934,9 +2872,6 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3026,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -3050,9 +2985,6 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3142,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3166,9 +3098,6 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3258,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3282,9 +3211,6 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3374,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3386,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -3398,9 +3324,6 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3490,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3514,9 +3437,6 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -3630,9 +3550,6 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -3746,9 +3663,6 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3838,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -3862,9 +3776,6 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3954,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -3978,9 +3889,6 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4073,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4094,9 +4002,6 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4186,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -4210,9 +4115,6 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4302,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -4326,9 +4228,6 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4418,16 +4317,16 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -4442,9 +4341,6 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4534,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -4558,9 +4454,6 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4650,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
@@ -4674,9 +4567,6 @@
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4766,13 +4656,13 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -4790,9 +4680,6 @@
         <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,9 +4793,6 @@
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -5022,9 +4906,6 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,16 +4995,16 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -5138,9 +5019,6 @@
         <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,16 +5108,16 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
@@ -5254,9 +5132,6 @@
         <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5346,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
         <v>0</v>
@@ -5370,9 +5245,6 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5468,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
@@ -5486,9 +5358,6 @@
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5578,16 +5447,16 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -5602,9 +5471,6 @@
         <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5694,16 +5560,16 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
@@ -5718,9 +5584,6 @@
         <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5810,16 +5673,16 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
         <v>0</v>
@@ -5834,9 +5697,6 @@
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,10 +5792,10 @@
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -5950,9 +5810,6 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6042,16 +5899,16 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -6066,9 +5923,6 @@
         <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6158,19 +6012,19 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
@@ -6182,9 +6036,6 @@
         <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6274,16 +6125,16 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
         <v>0</v>
@@ -6298,9 +6149,6 @@
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6390,16 +6238,16 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
         <v>0</v>
@@ -6414,9 +6262,6 @@
         <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/processed/bmw_50_filas.xlsx
+++ b/data/processed/bmw_50_filas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,11 +606,6 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>tipo_coche_suv</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
           <t>tipo_coche_van</t>
         </is>
       </c>
@@ -724,9 +719,6 @@
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -835,9 +827,6 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -950,9 +939,6 @@
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1063,9 +1049,6 @@
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1176,9 +1159,6 @@
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1289,9 +1269,6 @@
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1402,9 +1379,6 @@
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1515,9 +1489,6 @@
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1628,9 +1599,6 @@
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1741,9 +1709,6 @@
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1854,9 +1819,6 @@
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1967,9 +1929,6 @@
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2080,9 +2039,6 @@
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2193,9 +2149,6 @@
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2306,9 +2259,6 @@
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2419,9 +2369,6 @@
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2532,9 +2479,6 @@
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2645,9 +2589,6 @@
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2758,9 +2699,6 @@
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2871,9 +2809,6 @@
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2984,9 +2919,6 @@
       <c r="AJ22" t="n">
         <v>0</v>
       </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3097,9 +3029,6 @@
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3210,9 +3139,6 @@
       <c r="AJ24" t="n">
         <v>0</v>
       </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3323,9 +3249,6 @@
       <c r="AJ25" t="n">
         <v>0</v>
       </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3436,9 +3359,6 @@
       <c r="AJ26" t="n">
         <v>0</v>
       </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3549,9 +3469,6 @@
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3662,9 +3579,6 @@
       <c r="AJ28" t="n">
         <v>0</v>
       </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3775,9 +3689,6 @@
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3888,9 +3799,6 @@
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4001,9 +3909,6 @@
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4114,9 +4019,6 @@
       <c r="AJ32" t="n">
         <v>0</v>
       </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4227,9 +4129,6 @@
       <c r="AJ33" t="n">
         <v>0</v>
       </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4340,9 +4239,6 @@
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4453,9 +4349,6 @@
       <c r="AJ35" t="n">
         <v>0</v>
       </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4566,9 +4459,6 @@
       <c r="AJ36" t="n">
         <v>0</v>
       </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4679,9 +4569,6 @@
       <c r="AJ37" t="n">
         <v>0</v>
       </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4790,9 +4677,6 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4905,9 +4789,6 @@
       <c r="AJ39" t="n">
         <v>0</v>
       </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5018,9 +4899,6 @@
       <c r="AJ40" t="n">
         <v>0</v>
       </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5131,9 +5009,6 @@
       <c r="AJ41" t="n">
         <v>0</v>
       </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5244,9 +5119,6 @@
       <c r="AJ42" t="n">
         <v>0</v>
       </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5357,9 +5229,6 @@
       <c r="AJ43" t="n">
         <v>0</v>
       </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5470,9 +5339,6 @@
       <c r="AJ44" t="n">
         <v>0</v>
       </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5583,9 +5449,6 @@
       <c r="AJ45" t="n">
         <v>0</v>
       </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5696,9 +5559,6 @@
       <c r="AJ46" t="n">
         <v>0</v>
       </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5809,9 +5669,6 @@
       <c r="AJ47" t="n">
         <v>0</v>
       </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5922,9 +5779,6 @@
       <c r="AJ48" t="n">
         <v>0</v>
       </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -6035,9 +5889,6 @@
       <c r="AJ49" t="n">
         <v>0</v>
       </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6148,9 +5999,6 @@
       <c r="AJ50" t="n">
         <v>0</v>
       </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6259,9 +6107,6 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
         <v>0</v>
       </c>
     </row>
